--- a/Exported_Case_Arrival_Final.xlsx
+++ b/Exported_Case_Arrival_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5F389-D8F8-4135-9B29-5AA3B4F432BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA64CE-17BD-44C7-BA85-555973966421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Had minor symptoms on flight and hospitalized shortly after</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Reported to be aymptomatic at time of testing (wife of confirmed case), no indication if or when symptoms appeared</t>
+  </si>
+  <si>
+    <t>Reference (Date range links accessed: January 31, 2020 to Febraury 8, 2020)</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -801,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -812,7 +812,7 @@
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -823,7 +823,7 @@
     </row>
     <row r="3" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -846,13 +846,13 @@
         <v>15</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -866,10 +866,10 @@
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>35</v>
@@ -905,10 +905,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -929,7 +929,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>42</v>
@@ -948,10 +948,10 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>29</v>
@@ -999,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>38</v>
@@ -1075,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -1097,10 +1097,10 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>49</v>
@@ -1131,7 +1131,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>52</v>
@@ -1148,7 +1148,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>37</v>
@@ -1175,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -1271,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -1300,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>48</v>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>44</v>
@@ -1372,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1394,10 +1394,10 @@
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -1476,7 +1476,7 @@
         <v>19</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -1505,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -1534,7 +1534,7 @@
         <v>19</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -1563,7 +1563,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -1587,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>46</v>
@@ -1609,7 +1609,7 @@
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
       <c r="F36" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>56</v>
@@ -1636,7 +1636,7 @@
         <v>28</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -1665,7 +1665,7 @@
         <v>27</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -1694,7 +1694,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -1723,7 +1723,7 @@
         <v>57</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
@@ -1752,7 +1752,7 @@
         <v>58</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -1778,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
@@ -1810,7 +1810,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
@@ -1834,7 +1834,7 @@
         <v>-3</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>36</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>40</v>
@@ -1875,7 +1875,7 @@
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
       <c r="F46" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>54</v>
@@ -1892,7 +1892,7 @@
       <c r="D47" s="13"/>
       <c r="E47" s="14"/>
       <c r="F47" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>51</v>
@@ -1914,10 +1914,10 @@
         <v>4</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -1941,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>

--- a/Exported_Case_Arrival_Final.xlsx
+++ b/Exported_Case_Arrival_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA64CE-17BD-44C7-BA85-555973966421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FC346-1951-45AA-B18D-3D7385FA644C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,7 +793,7 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
     <col min="6" max="6" width="209.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.42578125" customWidth="1"/>
     <col min="8" max="16384" width="14.42578125" style="24"/>

--- a/Exported_Case_Arrival_Final.xlsx
+++ b/Exported_Case_Arrival_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FC346-1951-45AA-B18D-3D7385FA644C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E5FC4-DB0A-4B86-8DFE-0519DA75171A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,15 +113,6 @@
     <t>50 years old man, visited Wuhan from Dec-24 to Jan-13, confirmed with coronvirus on Jan-30</t>
   </si>
   <si>
-    <t xml:space="preserve"> a woman in her 50s, visited Wuhan Jan. 13-15, then traveled in Europe from Jan 16-25, cough start Jan. 22 and become worse on Jan. 25, Jan-25 arrived Taiwan and report to hospital and confirmed on Jan. 26;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a woman in her 50s, worked in Wuhan since Oct, 2019, arrived Taiwan on Jan. 20, fever and muscle pain on Jan. 25, confirmed on Jan 27; Her husband showed symptoms on Jan. 26, confirmed on Jan. 28.</t>
-  </si>
-  <si>
-    <t>a man in his 40s, worked in Wuhan since Sept. 2019, returned to Taiwan on Jan 12, showed symptom on Jan. 21, diagnosed as common fever on Jan. 22, confirmed with coronvirus on Jan. 30.</t>
-  </si>
-  <si>
     <t>https://news.ontario.ca/mohltc/en/2020/01/ontario-confirms-first-case-of-wuhan-novel-coronavirus.html</t>
   </si>
   <si>
@@ -206,12 +197,6 @@
     <t>https://www.thelocal.se/20200131/first-case-of-coronavirus-confirmed-in-jonkoping-sweden</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 person traveled from Wuhan to Taiwan on Jan. 21, doctor visit on Jan 23, confirmed on Jan. 24</t>
-  </si>
-  <si>
-    <t>Two woman in their 70s living in Wuhan, arrived Taiwan on Jan. 22, showed symptoms on Jan. 25, confirmed on Jan. 28;</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -287,9 +272,6 @@
     <t xml:space="preserve">Arrived in Ujjain on January 13 from Hubei province. Was kept in quaratine then moved to isolation. </t>
   </si>
   <si>
-    <t>32 yr old woamn from Wuhan. Flew  to Helsinki Airport and took a connecting flight to Ivalo Airport in Inari (potentially exposed 15 people)</t>
-  </si>
-  <si>
     <t>Student at Western University. Self-quaratined and exhibited mild symptoms and weakly positive</t>
   </si>
   <si>
@@ -317,15 +299,9 @@
     <t>This case was supposabley infected in Singapore (not used in the importation analysis since not travel to China)</t>
   </si>
   <si>
-    <t>Arrived with no symptoms and went to see GP one started to developl symptoms</t>
-  </si>
-  <si>
     <t>Grandmother fell ill and went to seek medical help on the Janaury 23, but unclear as to when symptoms first appeared</t>
   </si>
   <si>
-    <t>Reports indicate that the individual arrive a few days prior to symptoms. We conservatiely assumedtheyh arrived one day prior to confirmation.</t>
-  </si>
-  <si>
     <t>Began to feel unwell a few days after arrival, but no clear indication as to when symptom onset occurred (i.e. sore throat or cough)</t>
   </si>
   <si>
@@ -338,9 +314,6 @@
     <t>66 year old male experienced fever Janaury 17, son (who man met upon arrival) exhibit similar symoms on the 20th</t>
   </si>
   <si>
-    <t>Woman in 20's had visited Wuhan. Reported had no symptoms upon arrival . No duration between arrival and symptom onset. Since there was no date of symptom onset specified, we did not include in sypotmatic arrival analysis</t>
-  </si>
-  <si>
     <t>Time symptom onset uncertain</t>
   </si>
   <si>
@@ -348,6 +321,33 @@
   </si>
   <si>
     <t>Reference (Date range links accessed: January 31, 2020 to Febraury 8, 2020)</t>
+  </si>
+  <si>
+    <t>Woman in 20's had visited Wuhan. Reported had no symptoms upon arrival . No duration between arrival and symptom onset. Since there was no date of symptom onset specified, we did not include in symptomatic arrival analysis</t>
+  </si>
+  <si>
+    <t>A man in his 40s, worked in Wuhan since Sept. 2019, returned to Taiwan on Jan 12, showed symptom on Jan. 21, diagnosed as common fever on Jan. 22, confirmed with coronvirus on Jan. 30.</t>
+  </si>
+  <si>
+    <t>A woman in her 50s, worked in Wuhan since Oct, 2019, arrived Taiwan on Jan. 20, fever and muscle pain on Jan. 25, confirmed on Jan 27; Her husband showed symptoms on Jan. 26, confirmed on Jan. 28.</t>
+  </si>
+  <si>
+    <t>A woman in her 50s, visited Wuhan Jan. 13-15, then traveled in Europe from Jan 16-25, cough start Jan. 22 and become worse on Jan. 25, Jan-25 arrived Taiwan and report to hospital and confirmed on Jan. 26;</t>
+  </si>
+  <si>
+    <t>Reports indicate that the individual arrive a few days prior to symptoms. We conservatiely assumed they arrived one day prior to confirmation.</t>
+  </si>
+  <si>
+    <t>Person traveled from Wuhan to Taiwan on Jan. 21, doctor visit on Jan 23, confirmed on Jan. 24</t>
+  </si>
+  <si>
+    <t>Arrived with no symptoms and went to see GP once they started to develope symptoms</t>
+  </si>
+  <si>
+    <t>32 yr old woamn from Wuhan. Flew to Helsinki Airport and took a connecting flight to Ivalo Airport in Inari (potentially exposed 15 people)</t>
+  </si>
+  <si>
+    <t>Two women in their 70s living in Wuhan, arrived Taiwan on Jan. 22, showed symptoms on Jan. 25, confirmed on Jan. 28;</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -794,14 +794,18 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="209.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="214.140625" customWidth="1"/>
     <col min="7" max="7" width="255.42578125" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="24"/>
+    <col min="8" max="9" width="14.42578125" style="24"/>
+    <col min="10" max="10" width="5.42578125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="0.28515625" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="14.42578125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -812,7 +816,7 @@
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -823,7 +827,7 @@
     </row>
     <row r="3" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -832,7 +836,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="26" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -846,13 +850,13 @@
         <v>15</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -866,10 +870,10 @@
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -883,10 +887,10 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -905,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -918,7 +922,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="13">
         <v>43853</v>
@@ -929,10 +933,10 @@
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -948,10 +952,10 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -972,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -999,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1021,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -1048,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -1075,10 +1079,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -1097,15 +1101,15 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="13">
         <v>43843</v>
@@ -1114,15 +1118,15 @@
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="13">
         <v>43859</v>
@@ -1131,10 +1135,10 @@
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1148,10 +1152,10 @@
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1175,7 +1179,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -1199,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1218,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1242,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -1271,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -1300,7 +1304,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -1310,7 +1314,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="13">
         <v>43853</v>
@@ -1324,10 +1328,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -1337,7 +1341,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" s="13">
         <v>43839</v>
@@ -1348,10 +1352,10 @@
         <v>4</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -1361,7 +1365,7 @@
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" s="13">
         <v>43851</v>
@@ -1372,10 +1376,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -1385,7 +1389,7 @@
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1394,10 +1398,10 @@
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1416,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -1448,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -1476,7 +1480,7 @@
         <v>19</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -1505,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -1534,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -1563,7 +1567,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -1573,7 +1577,7 @@
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" s="13">
         <v>43849</v>
@@ -1587,10 +1591,10 @@
         <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -1600,7 +1604,7 @@
     </row>
     <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" s="13">
         <v>43854</v>
@@ -1609,10 +1613,10 @@
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
       <c r="F36" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -1633,10 +1637,10 @@
         <v>9</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -1662,10 +1666,10 @@
         <v>6</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -1691,10 +1695,10 @@
         <v>5</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -1720,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
@@ -1749,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -1778,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="F42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
@@ -1807,10 +1811,10 @@
         <v>-3</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
@@ -1834,10 +1838,10 @@
         <v>-3</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
@@ -1847,7 +1851,7 @@
     </row>
     <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" s="13">
         <v>43846</v>
@@ -1858,15 +1862,15 @@
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" s="13">
         <v>43860</v>
@@ -1875,15 +1879,15 @@
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
       <c r="F46" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B47" s="13">
         <v>43843</v>
@@ -1892,15 +1896,15 @@
       <c r="D47" s="13"/>
       <c r="E47" s="14"/>
       <c r="F47" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" s="15">
         <v>43845</v>
@@ -1914,10 +1918,10 @@
         <v>4</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -1941,10 +1945,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -2179,6 +2183,6 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="3" scale="33" fitToHeight="0" orientation="landscape" r:id="rId46"/>
+  <pageSetup paperSize="3" scale="35" fitToHeight="0" orientation="landscape" r:id="rId46"/>
 </worksheet>
 </file>
--- a/Exported_Case_Arrival_Final.xlsx
+++ b/Exported_Case_Arrival_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Corona Virus\Coronavirus-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E5FC4-DB0A-4B86-8DFE-0519DA75171A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0DFD5-75D2-4A63-985B-8FD0BF166363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>https://nationalpost.com/news/world/coronavirus-live-updates-wuhan-virus-china-2019ncov</t>
   </si>
   <si>
-    <t xml:space="preserve">Traveled to France Wed and Thurs reprted symptoms </t>
-  </si>
-  <si>
     <t>http://www.rfi.fr/en/international/20200125-french-health-authorities-confirm-three-cases-new-coronavirus-first-europe, https://www.aljazeera.com/news/2020/01/france-confirms-european-coronavirus-cases-200124195752666.html</t>
   </si>
   <si>
@@ -341,13 +338,16 @@
     <t>Person traveled from Wuhan to Taiwan on Jan. 21, doctor visit on Jan 23, confirmed on Jan. 24</t>
   </si>
   <si>
-    <t>Arrived with no symptoms and went to see GP once they started to develope symptoms</t>
-  </si>
-  <si>
     <t>32 yr old woamn from Wuhan. Flew to Helsinki Airport and took a connecting flight to Ivalo Airport in Inari (potentially exposed 15 people)</t>
   </si>
   <si>
     <t>Two women in their 70s living in Wuhan, arrived Taiwan on Jan. 22, showed symptoms on Jan. 25, confirmed on Jan. 28;</t>
+  </si>
+  <si>
+    <t>Arrived with no symptoms and went to see GP once they started to develop symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveled to France Wed and Thurs reported symptoms </t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -537,6 +537,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -784,7 +785,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,9 +804,9 @@
     <col min="13" max="16384" width="14.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -813,10 +814,15 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -824,10 +830,15 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -835,8 +846,13 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -850,16 +866,21 @@
         <v>15</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -870,13 +891,18 @@
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -887,13 +913,18 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
@@ -909,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -920,7 +951,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -933,13 +964,18 @@
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -952,13 +988,18 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -987,7 +1028,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>59</v>
@@ -1014,7 +1055,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1077,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>35</v>
@@ -1063,7 +1104,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
@@ -1079,10 +1120,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -1090,7 +1131,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
@@ -1101,13 +1142,18 @@
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
@@ -1118,13 +1164,18 @@
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>29</v>
       </c>
@@ -1135,13 +1186,18 @@
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -1152,13 +1208,18 @@
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -1187,7 +1248,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
@@ -1203,10 +1264,15 @@
         <v>25</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>7</v>
       </c>
@@ -1222,10 +1288,15 @@
         <v>22</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -1254,7 +1325,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -1283,7 +1354,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -1312,7 +1383,7 @@
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>45</v>
@@ -1339,7 +1410,7 @@
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -1352,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>41</v>
@@ -1363,7 +1434,7 @@
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>28</v>
       </c>
@@ -1376,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -1387,9 +1458,9 @@
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1398,13 +1469,18 @@
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1507,7 @@
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1528,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -1460,7 +1536,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -1488,7 +1564,7 @@
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -1517,7 +1593,7 @@
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1614,7 @@
         <v>19</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -1546,7 +1622,7 @@
       <c r="K33" s="28"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1643,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -1575,7 +1651,7 @@
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>42</v>
       </c>
@@ -1591,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>43</v>
@@ -1602,7 +1678,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
@@ -1613,13 +1689,18 @@
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
       <c r="F36" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>10</v>
       </c>
@@ -1637,10 +1718,10 @@
         <v>9</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -1648,7 +1729,7 @@
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>10</v>
       </c>
@@ -1666,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -1677,7 +1758,7 @@
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>10</v>
       </c>
@@ -1695,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -1706,7 +1787,7 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
     </row>
-    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
@@ -1724,10 +1805,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
@@ -1735,7 +1816,7 @@
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
     </row>
-    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
@@ -1753,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -1764,7 +1845,7 @@
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
     </row>
-    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
@@ -1782,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
@@ -1793,7 +1874,7 @@
       <c r="K42" s="27"/>
       <c r="L42" s="27"/>
     </row>
-    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>10</v>
       </c>
@@ -1811,10 +1892,10 @@
         <v>-3</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
@@ -1822,7 +1903,7 @@
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
     </row>
-    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1919,7 @@
         <v>-3</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>33</v>
@@ -1849,7 +1930,7 @@
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>36</v>
       </c>
@@ -1862,13 +1943,18 @@
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>50</v>
       </c>
@@ -1879,13 +1965,18 @@
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
       <c r="F46" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>47</v>
       </c>
@@ -1896,13 +1987,18 @@
       <c r="D47" s="13"/>
       <c r="E47" s="14"/>
       <c r="F47" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>47</v>
       </c>
@@ -1918,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>58</v>
@@ -1929,7 +2025,7 @@
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>12</v>
       </c>
@@ -1945,10 +2041,10 @@
         <v>4</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
